--- a/Assets/06.Table/CostumeAbility.xlsx
+++ b/Assets/06.Table/CostumeAbility.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D1362DE-8F7F-4F2B-9352-D4D8D6D3CAB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF722B96-19A9-48F7-87F2-43BC13659F70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="CostumeAbility" sheetId="1" r:id="rId1"/>
@@ -305,35 +305,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>방어력 무시 200</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>방어력 무시 300</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>경험치획득 증가 70%</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>방어력 무시 500</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>방어력 무시 400</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>방어력 무시 600</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>경험치획득 증가 120%</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>경험치획득 증가 90%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방어력 무시 1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방어력 무시 1500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방어력 무시 2000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방어력 무시 2500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방어력 무시 3000</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -448,9 +448,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 테마">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -488,7 +488,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -594,7 +594,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -736,7 +736,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -746,8 +746,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
   <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1259,7 +1259,7 @@
         <v>3</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
@@ -1279,7 +1279,7 @@
         <v>4</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
@@ -1299,7 +1299,7 @@
         <v>5</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
@@ -1410,7 +1410,7 @@
         <v>18</v>
       </c>
       <c r="C33" s="1">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="D33" s="1">
         <v>100</v>
@@ -1419,7 +1419,7 @@
         <v>1</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
@@ -1430,7 +1430,7 @@
         <v>18</v>
       </c>
       <c r="C34" s="1">
-        <v>300</v>
+        <v>1500</v>
       </c>
       <c r="D34" s="1">
         <v>50</v>
@@ -1439,7 +1439,7 @@
         <v>2</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
@@ -1450,7 +1450,7 @@
         <v>18</v>
       </c>
       <c r="C35" s="1">
-        <v>400</v>
+        <v>2000</v>
       </c>
       <c r="D35" s="1">
         <v>25</v>
@@ -1459,7 +1459,7 @@
         <v>3</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
@@ -1470,7 +1470,7 @@
         <v>18</v>
       </c>
       <c r="C36" s="1">
-        <v>500</v>
+        <v>2500</v>
       </c>
       <c r="D36" s="1">
         <v>8</v>
@@ -1479,7 +1479,7 @@
         <v>4</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
@@ -1490,7 +1490,7 @@
         <v>18</v>
       </c>
       <c r="C37" s="1">
-        <v>600</v>
+        <v>3000</v>
       </c>
       <c r="D37" s="1">
         <v>0.3</v>
@@ -1499,7 +1499,7 @@
         <v>5</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
